--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="212" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{578D7F1A-4B9F-4A43-96A6-0C596D811AD0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16BB3935-8E30-4F01-B6D9-79F82EABDA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>user</t>
+    <t>users</t>
   </si>
   <si>
     <t>ユーザに関する情報を保持するテーブル</t>
@@ -699,7 +699,7 @@
     <t>1 = 削除</t>
   </si>
   <si>
-    <t>chat_member</t>
+    <t>chat_members</t>
   </si>
   <si>
     <t>中間テーブルとしてユーザとチャットルームを紐付ける</t>
@@ -720,7 +720,7 @@
     <t>joined_at</t>
   </si>
   <si>
-    <t>chat_room</t>
+    <t>chat_rooms</t>
   </si>
   <si>
     <t>チャットルームに関する情報を保持するテーブル</t>
@@ -771,7 +771,7 @@
     <t>投稿内容</t>
   </si>
   <si>
-    <t>text</t>
+    <t>contents</t>
   </si>
   <si>
     <t>添付ファイル名</t>
@@ -780,7 +780,7 @@
     <t>file_name</t>
   </si>
   <si>
-    <t>task</t>
+    <t>tasks</t>
   </si>
   <si>
     <t>タスクを管理するテーブル</t>
@@ -947,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -995,17 +995,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1314,7 +1315,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -32184,61 +32185,61 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="12"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -32269,11 +32270,11 @@
       <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="12"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -32301,11 +32302,11 @@
         <v>27</v>
       </c>
       <c r="K5" s="22"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="23"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="12"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32329,11 +32330,11 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="23"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="12"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32355,11 +32356,11 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="12"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32384,14 +32385,14 @@
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="12"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32413,11 +32414,11 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="12"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32441,11 +32442,11 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="12"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32467,11 +32468,11 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="12"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32495,8 +32496,8 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32536,53 +32537,53 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="12"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -32615,7 +32616,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="12"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -32643,7 +32644,7 @@
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="12"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32669,7 +32670,7 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="12"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32695,7 +32696,7 @@
       <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="12"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32721,7 +32722,7 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="12"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32745,7 +32746,7 @@
       <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="12"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32769,7 +32770,7 @@
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="12"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32793,7 +32794,7 @@
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="12"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32817,7 +32818,7 @@
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="12"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32843,7 +32844,7 @@
       <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="12"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32867,7 +32868,7 @@
       <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="12"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32893,7 +32894,7 @@
       <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="12"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32941,9 +32942,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32963,31 +32964,53 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -33020,6 +33043,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="25"/>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -33045,6 +33069,7 @@
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="25"/>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -33070,6 +33095,7 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="25"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -33093,6 +33119,7 @@
       <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="25"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -33108,6 +33135,7 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="25"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -33123,6 +33151,7 @@
       <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="25"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -33138,6 +33167,7 @@
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="25"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -33153,6 +33183,7 @@
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="25"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -33168,6 +33199,7 @@
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="25"/>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -33183,6 +33215,7 @@
       <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="25"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -33198,6 +33231,7 @@
       <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="25"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -33213,6 +33247,7 @@
       <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="25"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -33246,9 +33281,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="E5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -33270,31 +33305,53 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -33327,6 +33384,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="25"/>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -33354,6 +33412,7 @@
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="25"/>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -33379,6 +33438,7 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="25"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -33402,6 +33462,7 @@
       <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="25"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -33431,6 +33492,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="25"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -33460,6 +33522,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="25"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -33483,6 +33546,7 @@
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="25"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -33508,6 +33572,7 @@
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="25"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -33531,6 +33596,7 @@
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="25"/>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -33556,6 +33622,7 @@
       <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="25"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -33585,6 +33652,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="25"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -33600,6 +33668,7 @@
       <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="25"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -33655,31 +33724,53 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -33712,6 +33803,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="25"/>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -33739,6 +33831,7 @@
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="25"/>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -33764,6 +33857,7 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="25"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -33789,6 +33883,7 @@
       <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="25"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -33812,6 +33907,7 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="25"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -33835,6 +33931,7 @@
       <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="25"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -33860,6 +33957,7 @@
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="25"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -33883,6 +33981,7 @@
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="25"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -33908,6 +34007,7 @@
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="25"/>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -33937,6 +34037,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="25"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -33952,6 +34053,7 @@
       <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="25"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -33967,6 +34069,7 @@
       <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="25"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -34022,31 +34125,53 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -34079,6 +34204,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="25"/>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -34106,6 +34232,7 @@
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="25"/>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -34131,6 +34258,7 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="25"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -34156,6 +34284,7 @@
       <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="25"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -34181,6 +34310,7 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="25"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -34202,6 +34332,7 @@
       <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="25"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -34231,6 +34362,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="25"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -34254,6 +34386,7 @@
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="25"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -34279,6 +34412,7 @@
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="25"/>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -34302,6 +34436,7 @@
       <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="25"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -34327,6 +34462,7 @@
       <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="25"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -34356,6 +34492,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="25"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>12</v>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16BB3935-8E30-4F01-B6D9-79F82EABDA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{573FE65F-1642-47AF-8070-EAE0454BAA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="123">
   <si>
     <t>改定履歴</t>
   </si>
@@ -675,9 +675,6 @@
     <t>created_by</t>
   </si>
   <si>
-    <t>FK</t>
-  </si>
-  <si>
     <t>最終更新日時</t>
   </si>
   <si>
@@ -706,6 +703,9 @@
   </si>
   <si>
     <t>user_id</t>
+  </si>
+  <si>
+    <t>FK</t>
   </si>
   <si>
     <t>チャットルームID</t>
@@ -32518,9 +32518,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="D5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32837,9 +32837,7 @@
       <c r="H13" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
@@ -32850,10 +32848,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>73</v>
@@ -32874,10 +32872,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>53</v>
@@ -32887,9 +32885,7 @@
       <c r="H15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
     </row>
@@ -32900,10 +32896,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>53</v>
@@ -32920,7 +32916,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -32942,9 +32938,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32965,7 +32961,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -32982,7 +32978,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -33052,7 +33048,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>53</v>
@@ -33063,7 +33059,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="22"/>
@@ -33089,7 +33085,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -33566,7 +33562,7 @@
         <v>54</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="17"/>
@@ -33578,10 +33574,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>73</v>
@@ -33602,10 +33598,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>53</v>
@@ -33616,7 +33612,7 @@
         <v>54</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -33628,10 +33624,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>53</v>
@@ -33851,7 +33847,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -33951,7 +33947,7 @@
         <v>54</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="17"/>
@@ -33963,10 +33959,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>73</v>
@@ -33987,10 +33983,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>53</v>
@@ -34001,7 +33997,7 @@
         <v>54</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="17"/>
@@ -34013,10 +34009,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>53</v>
@@ -34252,7 +34248,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -34304,7 +34300,7 @@
         <v>54</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -34406,7 +34402,7 @@
         <v>54</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="17"/>
@@ -34418,10 +34414,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>73</v>
@@ -34442,10 +34438,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>53</v>
@@ -34456,7 +34452,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -34468,10 +34464,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>53</v>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{573FE65F-1642-47AF-8070-EAE0454BAA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B1D473-D1A6-408C-8771-06C1B6C65B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="125">
   <si>
     <t>改定履歴</t>
   </si>
@@ -705,7 +705,10 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>FK</t>
+    <t>CPK</t>
+  </si>
+  <si>
+    <t>CPK = Composite Primary Key</t>
   </si>
   <si>
     <t>チャットルームID</t>
@@ -754,6 +757,9 @@
   </si>
   <si>
     <t>0=オープン, 1=ダイレクト</t>
+  </si>
+  <si>
+    <t>FK</t>
   </si>
   <si>
     <t>1=削除</t>
@@ -32518,9 +32524,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="D5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32785,7 +32791,7 @@
         <v>68</v>
       </c>
       <c r="F11" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="20"/>
@@ -32938,9 +32944,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="D5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32953,7 +32959,9 @@
     <col min="6" max="6" width="5.28515625" style="12" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="12" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="12"/>
+    <col min="9" max="10" width="14.42578125" style="12"/>
+    <col min="11" max="11" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
@@ -33062,7 +33070,9 @@
         <v>86</v>
       </c>
       <c r="J5" s="15"/>
-      <c r="K5" s="22"/>
+      <c r="K5" s="22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
       <c r="A6" s="25"/>
@@ -33071,10 +33081,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>53</v>
@@ -33088,7 +33098,9 @@
         <v>86</v>
       </c>
       <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="K6" s="22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
       <c r="A7" s="25"/>
@@ -33097,10 +33109,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>73</v>
@@ -33302,7 +33314,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -33319,7 +33331,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -33386,7 +33398,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>52</v>
@@ -33414,10 +33426,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>59</v>
@@ -33440,10 +33452,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>59</v>
@@ -33464,10 +33476,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>53</v>
@@ -33484,7 +33496,7 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -33494,10 +33506,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>53</v>
@@ -33514,7 +33526,7 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -33562,7 +33574,7 @@
         <v>54</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="17"/>
@@ -33612,7 +33624,7 @@
         <v>54</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -33644,7 +33656,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -33721,7 +33733,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -33738,7 +33750,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -33805,7 +33817,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>52</v>
@@ -33833,10 +33845,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>53</v>
@@ -33847,7 +33859,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -33859,10 +33871,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>59</v>
@@ -33885,10 +33897,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>59</v>
@@ -33947,7 +33959,7 @@
         <v>54</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="17"/>
@@ -33997,7 +34009,7 @@
         <v>54</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="17"/>
@@ -34029,7 +34041,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -34122,7 +34134,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -34139,7 +34151,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -34206,7 +34218,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>52</v>
@@ -34234,10 +34246,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>53</v>
@@ -34248,7 +34260,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -34260,10 +34272,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>59</v>
@@ -34286,10 +34298,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>53</v>
@@ -34300,7 +34312,7 @@
         <v>54</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -34312,10 +34324,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>73</v>
@@ -34334,10 +34346,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>53</v>
@@ -34354,7 +34366,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -34402,7 +34414,7 @@
         <v>54</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="17"/>
@@ -34452,7 +34464,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -34484,7 +34496,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B1D473-D1A6-408C-8771-06C1B6C65B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE5AB7F3-1378-4D68-91B8-01D0FB54943A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="126">
   <si>
     <t>改定履歴</t>
   </si>
@@ -651,13 +651,10 @@
     <t>mobile_number</t>
   </si>
   <si>
-    <t>CHAR</t>
-  </si>
-  <si>
     <t>勤務先電話番号</t>
   </si>
   <si>
-    <t>company_tel</t>
+    <t>company_tel_number</t>
   </si>
   <si>
     <t>作成日時</t>
@@ -669,28 +666,19 @@
     <t>DATETIME</t>
   </si>
   <si>
-    <t>作成者ユーザID</t>
-  </si>
-  <si>
-    <t>created_by</t>
-  </si>
-  <si>
     <t>最終更新日時</t>
   </si>
   <si>
     <t>updated_at</t>
   </si>
   <si>
-    <t>更新者ユーザID</t>
-  </si>
-  <si>
-    <t>updated_by</t>
-  </si>
-  <si>
     <t>削除フラグ</t>
   </si>
   <si>
-    <t>delete_flag</t>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
   </si>
   <si>
     <t>1 = 削除</t>
@@ -744,7 +732,10 @@
     <t>ファイル送信許可フラグ</t>
   </si>
   <si>
-    <t>file_permission</t>
+    <t>is_file_sendable</t>
+  </si>
+  <si>
+    <t>0=ファイル拒否</t>
   </si>
   <si>
     <t>0=許可, 1=拒否</t>
@@ -759,7 +750,19 @@
     <t>0=オープン, 1=ダイレクト</t>
   </si>
   <si>
+    <t>作成者ユーザID</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t>更新者ユーザID</t>
+  </si>
+  <si>
+    <t>updated_by</t>
   </si>
   <si>
     <t>1=削除</t>
@@ -816,7 +819,7 @@
     <t>完了フラグ</t>
   </si>
   <si>
-    <t>complete_flag</t>
+    <t>is_complete</t>
   </si>
   <si>
     <t>1=完了</t>
@@ -32524,9 +32527,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32624,7 +32627,7 @@
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="25"/>
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -32764,7 +32767,7 @@
         <v>67</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F10" s="18">
         <v>13</v>
@@ -32782,13 +32785,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="E11" s="15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F11" s="18">
         <v>13</v>
@@ -32806,13 +32809,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
@@ -32830,15 +32833,15 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="19"/>
+      <c r="E13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="18"/>
       <c r="G13" s="22"/>
       <c r="H13" s="20" t="s">
         <v>54</v>
@@ -32854,76 +32857,54 @@
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
       <c r="H14" s="20" t="s">
         <v>54</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75">
+      <c r="K14" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="25"/>
-      <c r="B15" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="25"/>
-      <c r="B16" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32944,8 +32925,8 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="D5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -32969,7 +32950,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -32986,7 +32967,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -33056,7 +33037,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>53</v>
@@ -33067,11 +33048,11 @@
         <v>54</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
@@ -33081,10 +33062,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>53</v>
@@ -33095,11 +33076,11 @@
         <v>54</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -33109,13 +33090,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="22"/>
@@ -33314,7 +33295,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -33331,7 +33312,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -33398,7 +33379,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>52</v>
@@ -33426,10 +33407,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>59</v>
@@ -33452,10 +33433,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>59</v>
@@ -33476,27 +33457,29 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F8" s="18">
         <v>1</v>
       </c>
       <c r="G8" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="22" t="s">
+        <v>96</v>
+      </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -33506,13 +33489,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F9" s="18">
         <v>1</v>
@@ -33526,7 +33509,7 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -33536,13 +33519,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="22"/>
@@ -33560,10 +33543,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>53</v>
@@ -33574,7 +33557,7 @@
         <v>54</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="17"/>
@@ -33586,13 +33569,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
@@ -33610,10 +33593,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>53</v>
@@ -33624,7 +33607,7 @@
         <v>54</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -33636,13 +33619,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
@@ -33656,7 +33639,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -33733,7 +33716,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -33750,7 +33733,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -33817,7 +33800,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>52</v>
@@ -33845,10 +33828,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>53</v>
@@ -33859,7 +33842,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -33871,10 +33854,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>59</v>
@@ -33897,10 +33880,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>59</v>
@@ -33921,13 +33904,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="22"/>
@@ -33945,10 +33928,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>53</v>
@@ -33959,7 +33942,7 @@
         <v>54</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="17"/>
@@ -33971,13 +33954,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="22"/>
@@ -33995,10 +33978,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>53</v>
@@ -34009,7 +33992,7 @@
         <v>54</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="17"/>
@@ -34021,13 +34004,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F13" s="19">
         <v>1</v>
@@ -34041,7 +34024,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -34134,7 +34117,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -34151,7 +34134,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -34218,7 +34201,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>52</v>
@@ -34246,10 +34229,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>53</v>
@@ -34260,7 +34243,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -34272,10 +34255,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>59</v>
@@ -34298,10 +34281,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>53</v>
@@ -34312,7 +34295,7 @@
         <v>54</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -34324,13 +34307,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="22"/>
@@ -34346,13 +34329,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F10" s="18">
         <v>1</v>
@@ -34366,7 +34349,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -34376,13 +34359,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="22"/>
@@ -34400,10 +34383,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>53</v>
@@ -34414,7 +34397,7 @@
         <v>54</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="17"/>
@@ -34426,13 +34409,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="22"/>
@@ -34450,10 +34433,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>53</v>
@@ -34464,7 +34447,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -34476,13 +34459,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F15" s="19">
         <v>1</v>
@@ -34496,7 +34479,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
